--- a/APF/QA/RA006/QAP001_APF_RA006_APF0302_密碼還原.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0302_密碼還原.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
   </bookViews>
@@ -24,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">修訂履歷!$B$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">檢視重點項目!$A$1:$L$173</definedName>
     <definedName name="review階段">備註說明!$G$2:$G$12</definedName>
-    <definedName name="次數選單">檢視記錄!$Q$7:$Q$22</definedName>
+    <definedName name="次數選單">檢視記錄!$Q$7:$Q$20</definedName>
     <definedName name="原因工程">備註說明!$B$2:$B$6</definedName>
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,7 +35,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1" shapeId="0">
+    <comment ref="Q6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="426">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2399,10 +2394,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>懿信、慕霖</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -2418,24 +2409,12 @@
     <t>功能分析</t>
   </si>
   <si>
-    <t>SA PM-2</t>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>SA PM-3</t>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>表達不清楚</t>
-  </si>
-  <si>
-    <t>考慮不足</t>
   </si>
   <si>
     <t>單位代號、人員職稱、員工編號等跳窗查詢未說明</t>
@@ -2457,18 +2436,80 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>SD沒有說明此功能頁面的form attribute及button attribute</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>於畫面說明補充form attribute、button attribute</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">懿信、慕霖、英杰、鈺杰 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>表達不清楚</t>
+  </si>
+  <si>
+    <t>強化</t>
+  </si>
+  <si>
     <t>功能設計</t>
   </si>
   <si>
-    <t>SD沒有說明此功能頁面的form attribute及button attribute</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>於畫面說明補充form attribute、button attribute</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>SA PM-4</t>
+    <t>4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO流程圖調整</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO是在UI文件上是指畫面遷徙圖，故此IPO應沒有output，已完成修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>於帳號查詢時，應依可查詢範圍，顯示可查詢的帳號(人員)資訊</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>於功能簡述中補充說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳勝</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>應說明預設密碼來源</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢帳號時，按下確認按鈕時，所傳入後端的參數調整為物件參數，非多個字串參數</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前定義兩個(含)以下參數，仍使用字串參數；三個(含)以上參數，改為傳入物件參數</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈺杰</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2480,7 +2521,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>懿信、傳勝、鈺杰、慕霖</t>
+    <t>懿信、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>林傳勝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳勝、鈺杰、慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2488,63 +2541,16 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO流程圖調整</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO是在UI文件上是指畫面遷徙圖，故此IPO應沒有output，已完成修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>於帳號查詢時，應依可查詢範圍，顯示可查詢的帳號(人員)資訊</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>於功能簡述中補充說明</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳勝</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>應說明預設密碼來源</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>於功能簡述中補充說明</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢帳號時，按下確認按鈕時，所傳入後端的參數調整為物件參數，非多個字串參數</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前定義兩個(含)以下參數，仍使用字串參數；三個(含)以上參數，改為傳入物件參數</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>鈺杰</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>強化</t>
+    <t>SD PM</t>
+  </si>
+  <si>
+    <t>SA PM-2</t>
+  </si>
+  <si>
+    <t>SA PM-3</t>
+  </si>
+  <si>
+    <t>SD PM-1</t>
   </si>
 </sst>
 </file>
@@ -4023,13 +4029,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4129,7 +4135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4164,7 +4170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4637,13 +4643,13 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4771,28 +4777,28 @@
         <v>282</v>
       </c>
       <c r="C5" s="99">
-        <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>4</v>
+        <f>COUNTIF($C$7:$C$25,"&gt;""")</f>
+        <v>5</v>
       </c>
       <c r="D5" s="108">
-        <f>SUM($M$7:$M$27)</f>
-        <v>16.999999999999993</v>
+        <f>SUM($M$7:$M$25)</f>
+        <v>6.5000000000000142</v>
       </c>
       <c r="E5" s="99">
-        <f>SUM($J$7:$J$27)</f>
-        <v>10</v>
+        <f>SUM($J$7:$J$25)</f>
+        <v>11</v>
       </c>
       <c r="F5" s="109">
-        <f ca="1">SUM($N$7:$N$27)</f>
-        <v>3</v>
+        <f ca="1">SUM($N$7:$N$25)</f>
+        <v>1048574</v>
       </c>
       <c r="G5" s="109">
-        <f ca="1">SUM($O$7:$O$27)</f>
-        <v>2</v>
+        <f ca="1">SUM($O$7:$O$25)</f>
+        <v>6</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>1</v>
+        <v>1048568</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4876,32 +4882,32 @@
         <v>384</v>
       </c>
       <c r="E7" s="66">
-        <v>41569</v>
+        <v>41598</v>
       </c>
       <c r="F7" s="140" t="s">
         <v>383</v>
       </c>
       <c r="G7" s="66">
-        <v>41569</v>
+        <v>41598</v>
       </c>
       <c r="H7" s="67">
-        <v>0.58333333333333337</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="I7" s="67">
-        <v>0.60416666666666663</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J7" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="L7" s="69" t="s">
         <v>385</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>386</v>
       </c>
       <c r="M7" s="70">
         <f>IF(C7="","",J7*(I7-H7)*24)</f>
-        <v>0.99999999999999645</v>
+        <v>1.3333333333333499</v>
       </c>
       <c r="N7" s="63">
         <f ca="1">IF(C7="","",COUNTIF(改善明細!A:A,Q7))</f>
@@ -4926,19 +4932,20 @@
         <v>380</v>
       </c>
       <c r="B8" s="1">
+        <f ca="1">IF(A8="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B8,,-1,,),OFFSET(B8,,-1,,)))</f>
         <v>2</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>379</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="E8" s="66">
         <v>41569</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G8" s="66">
         <v>41572</v>
@@ -4953,29 +4960,29 @@
         <v>2</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M8" s="70">
-        <f>IF(C8="","",J8*(I8-H8)*24)</f>
+        <f t="shared" ref="M8:M11" si="1">IF(C8="","",J8*(I8-H8)*24)</f>
         <v>0.33333333333333215</v>
       </c>
       <c r="N8" s="63">
-        <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
+        <f ca="1">IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
         <v>1</v>
       </c>
       <c r="O8" s="63">
-        <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
+        <f ca="1">IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
         <v>1</v>
       </c>
       <c r="P8" s="71" t="str">
-        <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
+        <f t="shared" ref="P8:P11" ca="1" si="2">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="Q8" s="71" t="str">
-        <f>IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
+        <f t="shared" ref="Q8:Q11" ca="1" si="3">IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
         <v>SA PM-2</v>
       </c>
       <c r="R8" s="72"/>
@@ -4985,19 +4992,20 @@
         <v>380</v>
       </c>
       <c r="B9" s="1">
+        <f ca="1">IF(A9="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B9,,-1,,),OFFSET(B9,,-1,,)))</f>
         <v>3</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>379</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="E9" s="66">
         <v>41579</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G9" s="66">
         <v>41579</v>
@@ -5012,90 +5020,101 @@
         <v>2</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M9" s="70">
-        <f>IF(C9="","",J9*(I9-H9)*24)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333215</v>
       </c>
       <c r="N9" s="63">
-        <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
+        <f ca="1">IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
         <v>1</v>
       </c>
       <c r="O9" s="63">
-        <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
-        <v>0</v>
+        <f ca="1">IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
+        <v>1</v>
       </c>
       <c r="P9" s="71" t="str">
-        <f t="shared" ref="P9" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>SA PM</v>
       </c>
       <c r="Q9" s="71" t="str">
-        <f>IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>SA PM-3</v>
       </c>
       <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <f ca="1">IF(A10="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B10,,-1,,),OFFSET(B10,,-1,,)))</f>
+        <v>1</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>379</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E10" s="66">
         <v>41603</v>
       </c>
       <c r="F10" s="140" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G10" s="66">
         <v>41600</v>
       </c>
       <c r="H10" s="67">
-        <v>0.56944444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I10" s="67">
         <v>0.72916666666666663</v>
       </c>
       <c r="J10" s="65">
+        <v>3</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="M10" s="70">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="N10" s="63">
+        <f ca="1">IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
         <v>4</v>
       </c>
-      <c r="K10" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="M10" s="70">
-        <f>IF(C10="","",J10*(I10-H10)*24)</f>
-        <v>15.333333333333332</v>
-      </c>
-      <c r="N10" s="63">
-        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
-        <v>0</v>
-      </c>
       <c r="O10" s="63">
-        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="74"/>
+        <f ca="1">IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v>3</v>
+      </c>
+      <c r="P10" s="71" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>SD PM</v>
+      </c>
+      <c r="Q10" s="71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SD PM-1</v>
+      </c>
+      <c r="R10" s="72"/>
     </row>
     <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A11" s="64"/>
+      <c r="A11" s="64" t="s">
+        <v>380</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="65"/>
+      <c r="C11" s="65" t="s">
+        <v>379</v>
+      </c>
       <c r="D11" s="140"/>
       <c r="E11" s="66"/>
       <c r="F11" s="140"/>
@@ -5105,12 +5124,27 @@
       <c r="J11" s="65"/>
       <c r="K11" s="68"/>
       <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="74"/>
+      <c r="M11" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="63">
+        <f>IF(C11="","",COUNTIF(改善明細!A:A,Q11))</f>
+        <v>1048567</v>
+      </c>
+      <c r="O11" s="63">
+        <f>IF(C11="","",COUNTIFS(改善明細!$A:$A,Q11, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q11" s="71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R11" s="72"/>
     </row>
     <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A12" s="64"/>
@@ -5119,9 +5153,9 @@
         <v/>
       </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="66"/>
-      <c r="F12" s="65"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="66"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -5129,7 +5163,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" ref="M12:M20" si="3">IF(C12="","",J12*(I12-H12)*24)</f>
+        <f t="shared" ref="M10:M18" si="4">IF(C12="","",J12*(I12-H12)*24)</f>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5141,14 +5175,14 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P12:P20" ca="1" si="4">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <f t="shared" ref="P10:P18" ca="1" si="5">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ref="Q12:Q20" ca="1" si="5">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
-        <v/>
-      </c>
-      <c r="R12" s="74"/>
+        <f t="shared" ref="Q10:Q18" ca="1" si="6">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
+        <v/>
+      </c>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A13" s="64"/>
@@ -5167,7 +5201,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
       <c r="M13" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="63" t="str">
@@ -5179,11 +5213,11 @@
         <v/>
       </c>
       <c r="P13" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q13" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(OR(A13="",B13=""),"",A13&amp;"-"&amp;B13)</f>
         <v/>
       </c>
       <c r="R13" s="74"/>
@@ -5205,7 +5239,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N14" s="63" t="str">
@@ -5217,11 +5251,11 @@
         <v/>
       </c>
       <c r="P14" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q14" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R14" s="74"/>
@@ -5243,7 +5277,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
       <c r="M15" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N15" s="63" t="str">
@@ -5255,11 +5289,11 @@
         <v/>
       </c>
       <c r="P15" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q15" s="71" t="str">
-        <f ca="1">IF(OR(A15="",B15=""),"",A15&amp;"-"&amp;B15)</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R15" s="74"/>
@@ -5281,7 +5315,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
       <c r="M16" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -5293,11 +5327,11 @@
         <v/>
       </c>
       <c r="P16" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q16" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R16" s="74"/>
@@ -5319,7 +5353,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -5331,11 +5365,11 @@
         <v/>
       </c>
       <c r="P17" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q17" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R17" s="74"/>
@@ -5357,7 +5391,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -5369,11 +5403,11 @@
         <v/>
       </c>
       <c r="P18" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q18" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R18" s="74"/>
@@ -5384,7 +5418,7 @@
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="65"/>
@@ -5394,11 +5428,11 @@
       <c r="J19" s="65"/>
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
-      <c r="M19" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N19" s="63" t="str">
+      <c r="M19" s="82" t="str">
+        <f>IF(C19="","",J19*(I19-H19)*24)</f>
+        <v/>
+      </c>
+      <c r="N19" s="81" t="str">
         <f>IF(C19="","",COUNTIF(改善明細!A:A,Q19))</f>
         <v/>
       </c>
@@ -5406,101 +5440,33 @@
         <f>IF(C19="","",COUNTIFS(改善明細!$A:$A,Q19, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P19" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q19" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P19" s="83" t="str">
+        <f ca="1">IF(Q19="","",LEFT(Q19,FIND("-",Q19)-1))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="83" t="str">
+        <f ca="1">IF(OR(A19="",B19=""),"",A19&amp;"-"&amp;B19)</f>
         <v/>
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A20" s="64"/>
-      <c r="B20" s="1" t="str">
-        <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
-        <v/>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N20" s="63" t="str">
-        <f>IF(C20="","",COUNTIF(改善明細!A:A,Q20))</f>
-        <v/>
-      </c>
-      <c r="O20" s="63" t="str">
-        <f>IF(C20="","",COUNTIFS(改善明細!$A:$A,Q20, 改善明細!$J:$J,"V"))</f>
-        <v/>
-      </c>
-      <c r="P20" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q20" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+    <row r="20" spans="1:18" s="55" customFormat="1">
+      <c r="A20" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="74"/>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A21" s="64"/>
-      <c r="B21" s="1" t="str">
-        <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
-        <v/>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="82" t="str">
-        <f>IF(C21="","",J21*(I21-H21)*24)</f>
-        <v/>
-      </c>
-      <c r="N21" s="81" t="str">
-        <f>IF(C21="","",COUNTIF(改善明細!A:A,Q21))</f>
-        <v/>
-      </c>
-      <c r="O21" s="63" t="str">
-        <f>IF(C21="","",COUNTIFS(改善明細!$A:$A,Q21, 改善明細!$J:$J,"V"))</f>
-        <v/>
-      </c>
-      <c r="P21" s="83" t="str">
-        <f ca="1">IF(Q21="","",LEFT(Q21,FIND("-",Q21)-1))</f>
-        <v/>
-      </c>
-      <c r="Q21" s="83" t="str">
-        <f ca="1">IF(OR(A21="",B21=""),"",A21&amp;"-"&amp;B21)</f>
-        <v/>
-      </c>
-      <c r="R21" s="74"/>
+    <row r="21" spans="1:18" s="55" customFormat="1">
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
     </row>
     <row r="22" spans="1:18" s="55" customFormat="1">
-      <c r="A22" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="76"/>
       <c r="O22" s="58"/>
       <c r="P22" s="58"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
     </row>
     <row r="23" spans="1:18" s="55" customFormat="1">
       <c r="O23" s="58"/>
@@ -5626,13 +5592,45 @@
       <c r="O53" s="58"/>
       <c r="P53" s="58"/>
     </row>
-    <row r="54" spans="1:18" s="55" customFormat="1">
+    <row r="54" spans="1:18" s="59" customFormat="1">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
       <c r="O54" s="58"/>
       <c r="P54" s="58"/>
-    </row>
-    <row r="55" spans="1:18" s="55" customFormat="1">
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+    </row>
+    <row r="55" spans="1:18" s="59" customFormat="1">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
       <c r="O55" s="58"/>
       <c r="P55" s="58"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
     </row>
     <row r="56" spans="1:18" s="59" customFormat="1">
       <c r="A56" s="55"/>
@@ -5914,61 +5912,21 @@
       <c r="Q69" s="55"/>
       <c r="R69" s="55"/>
     </row>
-    <row r="70" spans="1:18" s="59" customFormat="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-    </row>
-    <row r="71" spans="1:18" s="59" customFormat="1">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
+      <formula1>"ALL:PJ全體,HCM:總部共通,HMS:Master,HMSB:Master基本,HMSE:Master活動,HEO:EOS,HIA:情報分析,HIS:情報發信,HAI:AP基盤,HHI:INFRA,HNW:NW,SCM:門市共通,SSC:SC,SPS:POS,SGT:GOT"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B19">
       <formula1>IF(A7="","",IF(A7&lt;&gt;OFFSET(A7,-1,,,),1,OFFSET(B7,-1,,,)+1))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C19">
       <formula1>"再Review,OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A19">
       <formula1>review階段</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
-      <formula1>"ALL:PJ全體,HCM:總部共通,HMS:Master,HMSB:Master基本,HMSE:Master活動,HEO:EOS,HIA:情報分析,HIS:情報發信,HAI:AP基盤,HHI:INFRA,HNW:NW,SCM:門市共通,SSC:SC,SPS:POS,SGT:GOT"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -5993,7 +5951,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6094,32 +6052,32 @@
         <v>382</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H3" s="91">
-        <v>41569</v>
+        <v>41599</v>
       </c>
       <c r="I3" s="91">
-        <v>41569</v>
+        <v>41599</v>
       </c>
       <c r="J3" s="89" t="str">
         <f t="shared" ref="J3:J8" si="0">IF(I3="","","V")</f>
         <v>V</v>
       </c>
       <c r="K3" s="89" t="str">
-        <f t="shared" ref="K3:K9" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
+        <f t="shared" ref="K3:K8" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
       <c r="L3" s="90" t="str">
@@ -6133,31 +6091,31 @@
     </row>
     <row r="4" spans="1:18" s="23" customFormat="1" ht="81" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>395</v>
-      </c>
       <c r="H4" s="91">
-        <v>41577</v>
+        <v>41599</v>
       </c>
       <c r="I4" s="91">
-        <v>41577</v>
+        <v>41599</v>
       </c>
       <c r="J4" s="89" t="str">
         <f t="shared" si="0"/>
@@ -6178,37 +6136,39 @@
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A5" s="40" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>400</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H5" s="91">
-        <v>41582</v>
-      </c>
-      <c r="I5" s="91"/>
+        <v>41599</v>
+      </c>
+      <c r="I5" s="91">
+        <v>41599</v>
+      </c>
       <c r="J5" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K5" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L5" s="90" t="str">
         <f t="shared" si="2"/>
@@ -6221,26 +6181,24 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>410</v>
-      </c>
       <c r="E6" s="45" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>395</v>
-      </c>
+      <c r="G6" s="44"/>
       <c r="H6" s="91">
         <v>41603</v>
       </c>
@@ -6257,7 +6215,7 @@
       </c>
       <c r="L6" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M6" s="90"/>
       <c r="N6" s="36"/>
@@ -6266,26 +6224,24 @@
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>395</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G7" s="44"/>
       <c r="H7" s="91">
         <v>41603</v>
       </c>
@@ -6302,7 +6258,7 @@
       </c>
       <c r="L7" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M7" s="90"/>
       <c r="N7" s="36"/>
@@ -6311,26 +6267,24 @@
     </row>
     <row r="8" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A8" s="40" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>395</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="G8" s="44"/>
       <c r="H8" s="91">
         <v>41603</v>
       </c>
@@ -6347,44 +6301,39 @@
       </c>
       <c r="L8" s="90" t="str">
         <f t="shared" si="2"/>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="M8" s="90"/>
       <c r="N8" s="36"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="44.25" customHeight="1">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A9" s="40" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>422</v>
-      </c>
+      <c r="G9" s="46"/>
       <c r="H9" s="91">
         <v>41603</v>
       </c>
       <c r="I9" s="91"/>
       <c r="J9" s="89"/>
-      <c r="K9" s="89" t="str">
-        <f t="shared" si="1"/>
-        <v>V</v>
-      </c>
+      <c r="K9" s="89"/>
       <c r="L9" s="90"/>
       <c r="M9" s="90"/>
       <c r="N9" s="36"/>

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0302_密碼還原.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0302_密碼還原.xlsx
@@ -2465,10 +2465,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>IPO是在UI文件上是指畫面遷徙圖，故此IPO應沒有output，已完成修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>懿信</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2551,6 +2547,10 @@
   </si>
   <si>
     <t>SD PM-1</t>
+  </si>
+  <si>
+    <t>IPO在UI文件上是指畫面遷徙圖，故此IPO應沒有output，已完成修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4939,13 +4939,13 @@
         <v>379</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E8" s="66">
         <v>41569</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G8" s="66">
         <v>41572</v>
@@ -4960,10 +4960,10 @@
         <v>2</v>
       </c>
       <c r="K8" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" s="69" t="s">
         <v>417</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>418</v>
       </c>
       <c r="M8" s="70">
         <f t="shared" ref="M8:M11" si="1">IF(C8="","",J8*(I8-H8)*24)</f>
@@ -4999,13 +4999,13 @@
         <v>379</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E9" s="66">
         <v>41579</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G9" s="66">
         <v>41579</v>
@@ -5020,10 +5020,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="L9" s="69" t="s">
         <v>417</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>418</v>
       </c>
       <c r="M9" s="70">
         <f t="shared" si="1"/>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1">
         <f ca="1">IF(A10="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B10,,-1,,),OFFSET(B10,,-1,,)))</f>
@@ -5059,13 +5059,13 @@
         <v>379</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E10" s="66">
         <v>41603</v>
       </c>
       <c r="F10" s="140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G10" s="66">
         <v>41600</v>
@@ -5080,10 +5080,10 @@
         <v>3</v>
       </c>
       <c r="K10" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" s="69" t="s">
         <v>420</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>421</v>
       </c>
       <c r="M10" s="70">
         <f t="shared" si="1"/>
@@ -5163,7 +5163,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" ref="M10:M18" si="4">IF(C12="","",J12*(I12-H12)*24)</f>
+        <f t="shared" ref="M12:M18" si="4">IF(C12="","",J12*(I12-H12)*24)</f>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5175,11 +5175,11 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P10:P18" ca="1" si="5">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <f t="shared" ref="P12:P18" ca="1" si="5">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ref="Q10:Q18" ca="1" si="6">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
+        <f t="shared" ref="Q12:Q18" ca="1" si="6">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
         <v/>
       </c>
       <c r="R12" s="72"/>
@@ -5951,7 +5951,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="4" spans="1:18" s="23" customFormat="1" ht="81" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>389</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A5" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>390</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>401</v>
@@ -6190,10 +6190,10 @@
         <v>402</v>
       </c>
       <c r="D6" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>403</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>404</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>400</v>
@@ -6224,19 +6224,19 @@
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>407</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>408</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>388</v>
@@ -6267,19 +6267,19 @@
     </row>
     <row r="8" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A8" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>410</v>
-      </c>
       <c r="D8" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>407</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>408</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>388</v>
@@ -6310,19 +6310,19 @@
     </row>
     <row r="9" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A9" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B9" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>413</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>414</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>400</v>
